--- a/public/static/excel/store.xlsx
+++ b/public/static/excel/store.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A:$A</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B:$B</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -24,7 +24,7 @@
     <author>52931</author>
   </authors>
   <commentList>
-    <comment ref="G1" authorId="0">
+    <comment ref="H1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0">
+    <comment ref="T1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +73,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>门店编码</t>
+  </si>
   <si>
     <t>门店级别</t>
   </si>
@@ -137,10 +140,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -181,8 +184,78 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,70 +269,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,7 +293,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -289,23 +301,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,187 +334,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,15 +525,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -554,6 +548,41 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,17 +611,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -607,21 +625,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -630,10 +633,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -642,133 +645,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1133,37 +1136,38 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S1"/>
+  <dimension ref="A1:T1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="14.4545454545455" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.3636363636364" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.3636363636364" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.2727272727273" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.2727272727273" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5454545454545" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.2727272727273" style="2" customWidth="1"/>
-    <col min="8" max="8" width="17.8181818181818" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.4545454545455" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18" style="1" customWidth="1"/>
-    <col min="11" max="11" width="19.8181818181818" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.9090909090909" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.2727272727273" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.7272727272727" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.7272727272727" style="1" customWidth="1"/>
-    <col min="16" max="16" width="17.4545454545455" style="1" customWidth="1"/>
-    <col min="17" max="17" width="13" style="1" customWidth="1"/>
-    <col min="18" max="18" width="12.9090909090909" style="1" customWidth="1"/>
-    <col min="19" max="19" width="14.4545454545455" customWidth="1"/>
+    <col min="1" max="1" width="14.9090909090909" customWidth="1"/>
+    <col min="2" max="2" width="14.4545454545455" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.3636363636364" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3636363636364" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.2727272727273" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.2727272727273" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5454545454545" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.2727272727273" style="2" customWidth="1"/>
+    <col min="9" max="9" width="17.8181818181818" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.4545454545455" style="1" customWidth="1"/>
+    <col min="11" max="11" width="18" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19.8181818181818" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15.9090909090909" style="1" customWidth="1"/>
+    <col min="14" max="14" width="17.2727272727273" style="1" customWidth="1"/>
+    <col min="15" max="15" width="19.7272727272727" style="1" customWidth="1"/>
+    <col min="16" max="16" width="18.7272727272727" style="1" customWidth="1"/>
+    <col min="17" max="17" width="17.4545454545455" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13" style="1" customWidth="1"/>
+    <col min="19" max="19" width="12.9090909090909" style="1" customWidth="1"/>
+    <col min="20" max="20" width="14.4545454545455" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:20">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1175,25 +1179,25 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -1202,7 +1206,7 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="3" t="s">
@@ -1217,22 +1221,25 @@
       <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="3" t="s">
         <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1">
-    <sortCondition ref="A1"/>
+  <sortState ref="B1">
+    <sortCondition ref="B1"/>
   </sortState>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A$1:A$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B$1:B$1048576">
       <formula1>"一级,二级,三级"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
       <formula1>"直营,加盟,联营"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R$1:R$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S$1:S$1048576">
       <formula1>"启用,禁用"</formula1>
     </dataValidation>
   </dataValidations>
